--- a/collaborations/ua_country_institutions_sorted.xlsx
+++ b/collaborations/ua_country_institutions_sorted.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,21 +382,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dayanand Medical College &amp; Hospital</t>
+          <t>Vellore Institute of Technology University</t>
         </is>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Dhanbad</t>
+          <t>Tata Institute of Fundamental Research</t>
         </is>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -406,313 +406,313 @@
         </is>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Hyderabad</t>
+          <t>KIIT University</t>
         </is>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>International Crops Research Institute for the Semi-Arid Tropics</t>
+          <t>Institute of Chemical Technology</t>
         </is>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mazumdar Shaw Medical Foundation</t>
+          <t>Dayanand Medical College &amp; Hospital</t>
         </is>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Medanta The Medicity</t>
+          <t>Indian Institute of Science Bangalore</t>
         </is>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Punjab Institute of Medical Sciences</t>
+          <t>Indian Institute of Science Education and Research Kolkata</t>
         </is>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JSS Academy of Higher Education and Research</t>
+          <t>Indian Space Research Organisation</t>
         </is>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kamineni Institute of Dental Sciences</t>
+          <t>National Institute of Pharmaceutical Education and Research</t>
         </is>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>National Institute of Science Education and Research</t>
+          <t>University of Lucknow</t>
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Christian Institute of Health Sciences and Research Hospital</t>
+          <t>Academy of Scientific and Innovative Research</t>
         </is>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Bangalore</t>
+          <t>Chitkara University</t>
         </is>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tata Institute of Fundamental Research</t>
+          <t>Galgotias University</t>
         </is>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Bombay</t>
+          <t>Mohanlal Sukhadia University</t>
         </is>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Indian Space Research Organisation</t>
+          <t>Amrita Vishwa Vidyapeetham</t>
         </is>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Manipal Academy of Higher Education</t>
+          <t>Central Inland Fisheries Research Institute</t>
         </is>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mazumdar Shaw Medical Centre</t>
+          <t>Indian Association for the Cultivation of Science</t>
         </is>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Narayana Health</t>
+          <t>Indian Institute of Technology Guwahati</t>
         </is>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Physical Research Laboratory</t>
+          <t>Indian Institute of Technology Hyderabad</t>
         </is>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Academy of Scientific and Innovative Research</t>
+          <t>Indian Institute of Technology Kanpur</t>
         </is>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aligarh Muslim University</t>
+          <t>Indian Institute of Technology Kharagpur</t>
         </is>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cochin University of Science and Technology</t>
+          <t>Indraprastha Apollo Hospitals</t>
         </is>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Indore</t>
+          <t>SRM Institute of Science and Technology</t>
         </is>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indian School of Business</t>
+          <t>Siksha O Anusandhan University</t>
         </is>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>National Institute of Cancer Prevention and Research</t>
+          <t>Wildlife Institute of India</t>
         </is>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>All India Institute of Medical Sciences</t>
+          <t>Apollo Hospitals</t>
         </is>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aryabhatta Research Institute of Observational Sciences</t>
+          <t>Barkatullah University</t>
         </is>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Birla Institute of Technology, Mesra</t>
+          <t>Cochin University of Science and Technology</t>
         </is>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cancer Institute (WIA)</t>
+          <t>Govind Ballabh Pant Hospital</t>
         </is>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Deenanath Mangeshkar Hospital and Research Center</t>
+          <t>Guru Teg Bahadur Hospital</t>
         </is>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Indian Institute of Astrophysics</t>
+          <t>Homi Bhabha National Institute</t>
         </is>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Delhi</t>
+          <t>Indian Institute of Technology Bombay</t>
         </is>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>American College, Madurai</t>
+          <t>Indian Institute of Technology Delhi</t>
         </is>
       </c>
       <c r="B36">
@@ -722,7 +722,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bhabha Atomic Research Center Hospital</t>
+          <t>Indian Institute of Technology Indore</t>
         </is>
       </c>
       <c r="B37">
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Biocon (India)</t>
+          <t>Indian Institute of Technology Madras</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dr. Hari Singh Gour University</t>
+          <t>Institute of Himalayan Bioresource Technology</t>
         </is>
       </c>
       <c r="B39">
@@ -752,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Global Development Network</t>
+          <t>Institute of Reproductive Medicine</t>
         </is>
       </c>
       <c r="B40">
@@ -762,7 +762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Govind Ballabh Pant Hospital</t>
+          <t>Jadavpur University</t>
         </is>
       </c>
       <c r="B41">
@@ -772,7 +772,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Great Lakes Institute of Management</t>
+          <t>Kazi Nazrul University</t>
         </is>
       </c>
       <c r="B42">
@@ -782,7 +782,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Indian Institute of Pulses Research</t>
+          <t>Motilal Nehru National Institute of Technology</t>
         </is>
       </c>
       <c r="B43">
@@ -792,7 +792,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Education and Research Pune</t>
+          <t>National Institute of Technology Durgapur</t>
         </is>
       </c>
       <c r="B44">
@@ -802,7 +802,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Education and Research, Bhopal</t>
+          <t>REVA University</t>
         </is>
       </c>
       <c r="B45">
@@ -812,7 +812,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Indian Institute of Tropical Meteorology</t>
+          <t>University of Calcutta</t>
         </is>
       </c>
       <c r="B46">
@@ -822,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Indraprastha Apollo Hospitals</t>
+          <t>University of Engineering &amp; Management</t>
         </is>
       </c>
       <c r="B47">
@@ -832,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>International Centre for Genetic Engineering and Biotechnology</t>
+          <t>Vivekananda Global University</t>
         </is>
       </c>
       <c r="B48">
@@ -842,47 +842,47 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jadavpur University</t>
+          <t>Adamas University</t>
         </is>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru University</t>
+          <t>All India Institute of Medical Sciences</t>
         </is>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Narayana Nethralaya</t>
+          <t>All India Institute of Medical Sciences Jodhpur</t>
         </is>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>University of Lucknow</t>
+          <t>Aryabhatta Research Institute of Observational Sciences</t>
         </is>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Apollo Hospitals</t>
+          <t>Ashoka University</t>
         </is>
       </c>
       <c r="B53">
@@ -892,7 +892,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Centre for Cellular and Molecular Biology</t>
+          <t>Atal Bihari Vajpayee Indian Institute of Information Technology and Management</t>
         </is>
       </c>
       <c r="B54">
@@ -902,7 +902,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Centurion University of Technology and Management</t>
+          <t>Bai Jerbai Wadia Hospital for Children</t>
         </is>
       </c>
       <c r="B55">
@@ -912,7 +912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cotton University</t>
+          <t>Birla Institute of Technology and Science, Pilani</t>
         </is>
       </c>
       <c r="B56">
@@ -922,7 +922,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Doon University</t>
+          <t>CARE Hospitals</t>
         </is>
       </c>
       <c r="B57">
@@ -932,7 +932,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>French Institute of Pondicherry</t>
+          <t>Central University of Gujarat</t>
         </is>
       </c>
       <c r="B58">
@@ -942,7 +942,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>India Meteorological Department</t>
+          <t>Central University of Kerala</t>
         </is>
       </c>
       <c r="B59">
@@ -952,7 +952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Education and Research Mohali</t>
+          <t>Dr. D. Y. Patil Medical College, Hospital and Research Centre</t>
         </is>
       </c>
       <c r="B60">
@@ -962,7 +962,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Education and Research, Tirupati</t>
+          <t>French Institute of Pondicherry</t>
         </is>
       </c>
       <c r="B61">
@@ -972,7 +972,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Jodhpur</t>
+          <t>GITAM University</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Malaviya National Institute of Technology Jaipur</t>
+          <t>Indian Institute of Engineering Science and Technology, Shibpur</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>National Institute for Interdisciplinary Science and Technology</t>
+          <t>Indian Institute of Science Education and Research Pune</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,7 +1002,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>National Institute of Biomedical Genomics</t>
+          <t>Indian Institute of Technology Bhubaneswar</t>
         </is>
       </c>
       <c r="B65">
@@ -1012,7 +1012,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>National Institute of Plant Genome Research</t>
+          <t>Indian Institute of Technology Ropar</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Natural Remedies (India)</t>
+          <t>Indian Institute of Tropical Meteorology</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,7 +1032,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Pandit Deendayal Petroleum University</t>
+          <t>Indian School of Business</t>
         </is>
       </c>
       <c r="B68">
@@ -1042,7 +1042,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Post Graduate Institute of Medical Education and Research</t>
+          <t>Indian Statistical Institute</t>
         </is>
       </c>
       <c r="B69">
@@ -1052,7 +1052,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Public Health Foundation of India</t>
+          <t>Indira Gandhi Institute of Child Health</t>
         </is>
       </c>
       <c r="B70">
@@ -1062,7 +1062,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Structural Engineering Research Centre</t>
+          <t>Institute of Medical Sciences and Sum Hospital</t>
         </is>
       </c>
       <c r="B71">
@@ -1072,7 +1072,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>University of Delhi</t>
+          <t>International Centre for Genetic Engineering and Biotechnology</t>
         </is>
       </c>
       <c r="B72">
@@ -1082,7 +1082,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>University of Hyderabad</t>
+          <t>Jawaharlal Nehru University</t>
         </is>
       </c>
       <c r="B73">
@@ -1092,7 +1092,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Velammal Medical College Hospital and Research Institute</t>
+          <t>Karnataka Veterinary Animal and Fisheries Sciences University</t>
         </is>
       </c>
       <c r="B74">
@@ -1102,7 +1102,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vivekananda Memorial Hospital</t>
+          <t>King George's Medical University</t>
         </is>
       </c>
       <c r="B75">
@@ -1112,167 +1112,167 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ahmedabad University</t>
+          <t>MIT Art, Design and Technology University</t>
         </is>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Alagappa University</t>
+          <t>Manipal Academy of Higher Education</t>
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>All India Institute of Medical Sciences Raipur</t>
+          <t>Maulana Azad Medical College</t>
         </is>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Amity University</t>
+          <t>Medanta The Medicity</t>
         </is>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Amrita Institute of Medical Sciences and Research Centre</t>
+          <t>Midnapore Medical College and Hospital</t>
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Annamalai University</t>
+          <t>Nagaland University</t>
         </is>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Apex Heart Institute</t>
+          <t>National Centre for Biological Sciences</t>
         </is>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AstraZeneca (India)</t>
+          <t>O. P. Jindal Global University</t>
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Babasaheb Bhimrao Ambedkar University</t>
+          <t>Raisoni Group of Institutions</t>
         </is>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bharathidasan University</t>
+          <t>Saha Institute of Nuclear Physics</t>
         </is>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bharati Vidyapeeth Deemed University</t>
+          <t>Saveetha University</t>
         </is>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Birla Institute of Technology and Science, Pilani</t>
+          <t>Shiv Nadar University</t>
         </is>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Birla Institute of Technology and Science, Pilani - Goa Campus</t>
+          <t>Usha Martin (India)</t>
         </is>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CARE Hospitals</t>
+          <t>Vardhman Mahavir Medical College &amp; Safdarjung Hospital</t>
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Calcutta National Medical College and Hospital</t>
+          <t>Vel Tech Rangarajan Dr. Sagunthala R&amp;D Institute of Science and Technology</t>
         </is>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Central Agricultural University</t>
+          <t>Yashwantrao Chavan Maharashtra Open University</t>
         </is>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Central Scientific Instruments Organisation</t>
+          <t>AMRI Hospitals</t>
         </is>
       </c>
       <c r="B92">
@@ -1282,7 +1282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Central University of Jharkhand</t>
+          <t>Asian Institute of Gastroenterology</t>
         </is>
       </c>
       <c r="B93">
@@ -1292,7 +1292,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chaudhary Charan Singh Haryana Agricultural University</t>
+          <t>AstraZeneca (India)</t>
         </is>
       </c>
       <c r="B94">
@@ -1302,7 +1302,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chaudhary Charan Singh University</t>
+          <t>Banaras Hindu University</t>
         </is>
       </c>
       <c r="B95">
@@ -1312,7 +1312,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chennai Mathematical Institute</t>
+          <t>Bharati Vidyapeeth Deemed University</t>
         </is>
       </c>
       <c r="B96">
@@ -1322,7 +1322,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Christ University</t>
+          <t>Cancer Institute (WIA)</t>
         </is>
       </c>
       <c r="B97">
@@ -1332,7 +1332,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Government Kilpauk Medical College</t>
+          <t>Care Institute of Medical Sciences</t>
         </is>
       </c>
       <c r="B98">
@@ -1342,7 +1342,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Government Medical College</t>
+          <t>Central Glass and Ceramic Research Institute</t>
         </is>
       </c>
       <c r="B99">
@@ -1352,7 +1352,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Gujarat Cancer Society</t>
+          <t>Central Institute of Fisheries Education</t>
         </is>
       </c>
       <c r="B100">
@@ -1362,7 +1362,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Healis Sekhsaria Institute For Public Health</t>
+          <t>Central Marine Fisheries Research Institute</t>
         </is>
       </c>
       <c r="B101">
@@ -1372,7 +1372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Homi Bhabha National Institute</t>
+          <t>Centre for Cellular and Molecular Biology</t>
         </is>
       </c>
       <c r="B102">
@@ -1382,7 +1382,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IQVIA (India)</t>
+          <t>Chandigarh University</t>
         </is>
       </c>
       <c r="B103">
@@ -1392,7 +1392,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Indian Agricultural Research Institute</t>
+          <t>Christian Medical College &amp; Hospital</t>
         </is>
       </c>
       <c r="B104">
@@ -1402,7 +1402,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Indian Council of Agricultural Research</t>
+          <t>Delhi Pharmaceutical Science and Research University</t>
         </is>
       </c>
       <c r="B105">
@@ -1412,7 +1412,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Indian Institute of Integrative Medicine</t>
+          <t>Diabetes Care &amp; Hormone Clinic</t>
         </is>
       </c>
       <c r="B106">
@@ -1422,7 +1422,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Indian Institute of Science Education and Research Thiruvananthapuram</t>
+          <t>Diabetes Foundation</t>
         </is>
       </c>
       <c r="B107">
@@ -1432,7 +1432,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Gandhinagar</t>
+          <t>Dr D Y Patil Dental College &amp; Hospital</t>
         </is>
       </c>
       <c r="B108">
@@ -1442,7 +1442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Guwahati</t>
+          <t>Education and Research Network</t>
         </is>
       </c>
       <c r="B109">
@@ -1452,7 +1452,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Indian Institute of Technology Mandi</t>
+          <t>Geological Survey of India</t>
         </is>
       </c>
       <c r="B110">
@@ -1462,7 +1462,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Institute of Economic Growth</t>
+          <t>Government Medical College</t>
         </is>
       </c>
       <c r="B111">
@@ -1472,7 +1472,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Institute of Medical Sciences</t>
+          <t>Government of India</t>
         </is>
       </c>
       <c r="B112">
@@ -1482,7 +1482,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Institute of Neurosciences Kolkata</t>
+          <t>Government of Mizoram</t>
         </is>
       </c>
       <c r="B113">
@@ -1492,7 +1492,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>International Institute of Information Technology Bangalore</t>
+          <t>Honeywell (India)</t>
         </is>
       </c>
       <c r="B114">
@@ -1502,7 +1502,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>International Institute of Information Technology, Hyderabad</t>
+          <t>Indian Institute of Chemical Technology</t>
         </is>
       </c>
       <c r="B115">
@@ -1512,7 +1512,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>JSS Medical College and Hospital</t>
+          <t>Indian Institute of Science Education and Research Thiruvananthapuram</t>
         </is>
       </c>
       <c r="B116">
@@ -1522,7 +1522,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jaswant Rai Speciality Hospital</t>
+          <t>Indian Institute of Science Education and Research, Bhopal</t>
         </is>
       </c>
       <c r="B117">
@@ -1532,7 +1532,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jawaharlal Institute of Post Graduate Medical Education and Research</t>
+          <t>Indian Institute of Science Education and Research, Tirupati</t>
         </is>
       </c>
       <c r="B118">
@@ -1542,7 +1542,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru Krishi Vishwa Vidyalaya</t>
+          <t>Indian Institute of Technology BHU</t>
         </is>
       </c>
       <c r="B119">
@@ -1552,7 +1552,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru Technological University, Hyderabad</t>
+          <t>Indian Institute of Technology Dhanbad</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,7 +1562,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Junagadh Agricultural University</t>
+          <t>Institute of Public Health</t>
         </is>
       </c>
       <c r="B121">
@@ -1572,7 +1572,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K J Somaiya Medical College</t>
+          <t>JSS Academy of Higher Education and Research</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>King George's Medical University</t>
+          <t>Jaipur Golden Hospital</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,7 +1592,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kokilaben Dhirubhai Ambani Hospital</t>
+          <t>Jamia Millia Islamia</t>
         </is>
       </c>
       <c r="B124">
@@ -1602,7 +1602,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lady Hardinge Medical College</t>
+          <t>Jaswant Rai Speciality Hospital</t>
         </is>
       </c>
       <c r="B125">
@@ -1612,7 +1612,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lokmanya Tilak Municipal General Hospital and Lokmanya Tilak Municipal Medical College</t>
+          <t>K J Somaiya Medical College</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>M.S. Ramaiah Medical College</t>
+          <t>Karpagam Academy of Higher Education</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Madurai Kamaraj University</t>
+          <t>Kirloskar Hospital</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Mahatma Gandhi University</t>
+          <t>Kokilaben Dhirubhai Ambani Hospital</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,7 +1652,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Manipal Hospital</t>
+          <t>Koneru Lakshmaiah Education Foundation</t>
         </is>
       </c>
       <c r="B130">
@@ -1662,7 +1662,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Maulana Azad Medical College</t>
+          <t>Lady Hardinge Medical College</t>
         </is>
       </c>
       <c r="B131">
@@ -1672,7 +1672,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Microsoft Research (India)</t>
+          <t>Lilavati Hospital &amp; Research Centre</t>
         </is>
       </c>
       <c r="B132">
@@ -1682,7 +1682,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ministry of Earth Sciences</t>
+          <t>M.J.P. Rohilkhand University</t>
         </is>
       </c>
       <c r="B133">
@@ -1692,7 +1692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mizoram University</t>
+          <t>Mahatma Gandhi University</t>
         </is>
       </c>
       <c r="B134">
@@ -1702,7 +1702,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mysore Medical College</t>
+          <t>Mangalore University</t>
         </is>
       </c>
       <c r="B135">
@@ -1712,7 +1712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NIMS University</t>
+          <t>Manipal Hospital</t>
         </is>
       </c>
       <c r="B136">
@@ -1722,7 +1722,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>National Atmospheric Research Laboratory</t>
+          <t>Marwadi University</t>
         </is>
       </c>
       <c r="B137">
@@ -1732,7 +1732,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>National Centre for Medium Range Weather Forecasting</t>
+          <t>Max Healthcare</t>
         </is>
       </c>
       <c r="B138">
@@ -1742,7 +1742,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>National Institute of Mental Health and Neurosciences</t>
+          <t>National Centre for Antarctic and Ocean Research</t>
         </is>
       </c>
       <c r="B139">
@@ -1752,7 +1752,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>National Institute of Technology Nagaland</t>
+          <t>National Centre for Radio Astrophysics</t>
         </is>
       </c>
       <c r="B140">
@@ -1762,7 +1762,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>National Research Centre on Plant Biotechnology</t>
+          <t>National Health Systems Resource Centre</t>
         </is>
       </c>
       <c r="B141">
@@ -1772,7 +1772,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nethradhama Superspeciality Eye Hospital</t>
+          <t>National Institute of Cancer Prevention and Research</t>
         </is>
       </c>
       <c r="B142">
@@ -1782,7 +1782,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PAREXEL International (India)</t>
+          <t>National Institute of Science Education and Research</t>
         </is>
       </c>
       <c r="B143">
@@ -1792,7 +1792,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Patna Medical College and Hospital</t>
+          <t>National Institute of Technology Tiruchirappalli</t>
         </is>
       </c>
       <c r="B144">
@@ -1802,7 +1802,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Periyar University</t>
+          <t>National Metallurgical Laboratory</t>
         </is>
       </c>
       <c r="B145">
@@ -1812,7 +1812,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Presidency University</t>
+          <t>Netaji Subhas University of Technology</t>
         </is>
       </c>
       <c r="B146">
@@ -1822,7 +1822,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Rainbow Children's Hospital</t>
+          <t>Nightingales Medical Trust</t>
         </is>
       </c>
       <c r="B147">
@@ -1832,7 +1832,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Rajiv Gandhi Centre for Biotechnology</t>
+          <t>Pain Clinic of India</t>
         </is>
       </c>
       <c r="B148">
@@ -1842,7 +1842,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SRM Institute of Science and Technology</t>
+          <t>Pandit Bhagwat Dayal Sharma Post Graduate Institute of Medical Sciences</t>
         </is>
       </c>
       <c r="B149">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sahyadri Hospital</t>
+          <t>Panjab University</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,7 +1862,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Salim Ali Center for Ornithology and Natural History</t>
+          <t>Punjab Institute of Medical Sciences</t>
         </is>
       </c>
       <c r="B151">
@@ -1872,7 +1872,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sanjay Gandhi Post Graduate Institute of Medical Sciences</t>
+          <t>Punjabi University</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,7 +1882,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sankara Nethralaya</t>
+          <t>Robert Bosch (India)</t>
         </is>
       </c>
       <c r="B153">
@@ -1892,7 +1892,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sardar Patel Medical College</t>
+          <t>S.N. Bose National Centre for Basic Sciences</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Savitribai Phule Pune University</t>
+          <t>SRM University</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sher-i-Kashmir Institute of Medical Sciences</t>
+          <t>Sahyadri Hospital</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Shoolini University</t>
+          <t>Santosh University</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,7 +1932,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Smt. N.H.L. Municipal Medical College</t>
+          <t>Sarojini Naidu Medical College</t>
         </is>
       </c>
       <c r="B158">
@@ -1942,7 +1942,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>St. Peter's Institute of Higher Education and Research</t>
+          <t>Shoolini University</t>
         </is>
       </c>
       <c r="B159">
@@ -1952,7 +1952,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Swami Keshwanand Rajasthan Agricultural University</t>
+          <t>Shreemati Nathibai Damodar Thackersey Women's University</t>
         </is>
       </c>
       <c r="B160">
@@ -1962,7 +1962,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tamil Nadu Dr. M.G.R. Medical University</t>
+          <t>Sir H.N. Reliance Foundation Hospital and Research Centre</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (India)</t>
+          <t>Sri Venkateswara Medical College and Ruia Hospital</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,7 +1982,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Tata Memorial Hospital</t>
+          <t>Tamil Nadu Agricultural University</t>
         </is>
       </c>
       <c r="B163">
@@ -1992,7 +1992,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Tata Trusts</t>
+          <t>Tamil Nadu Dr. M.G.R. Medical University</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tezpur University</t>
+          <t>Tata Consultancy Services (India)</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Translational Research Platform for Veterinary Biologicals (India)</t>
+          <t>Tatyasaheb Kore Dental College and Research Centre</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>University of Calcutta</t>
+          <t>University of Burdwan</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,7 +2032,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>University of Kalyani</t>
+          <t>University of Delhi</t>
         </is>
       </c>
       <c r="B168">
@@ -2042,7 +2042,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>University of Mysore</t>
+          <t>University of Kashmir</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Victoria Hospital</t>
+          <t>Uttaranchal University</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Vignan's Foundation for Science, Technology &amp; Research</t>
+          <t>Vivekananda Institute of Medical Sciences</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,20 +2072,10 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Vivekananda Institute of Medical Sciences</t>
+          <t>Wockhardt Hospitals</t>
         </is>
       </c>
       <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Yenepoya University</t>
-        </is>
-      </c>
-      <c r="B173">
         <v>1</v>
       </c>
     </row>
